--- a/doc/db/aiTalkDB_Frontend.xlsx
+++ b/doc/db/aiTalkDB_Frontend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqingze/Workspace/Repositories/aitalk/doc/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D65A99-1C1C-9A4A-AB96-072265C57B7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437DC91F-42B9-0448-A578-4437F8420713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="9" xr2:uid="{F2C5FE8B-44E8-0E47-A551-EB5E6A9AD6B4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{F2C5FE8B-44E8-0E47-A551-EB5E6A9AD6B4}"/>
   </bookViews>
   <sheets>
     <sheet name="表一览" sheetId="10" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC3F0F7-054F-0D47-BA14-9E5875E849F5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1546,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2679FD-4C00-FB4D-8186-54CE106F5B8B}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/doc/db/aiTalkDB_Frontend.xlsx
+++ b/doc/db/aiTalkDB_Frontend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqingze/Workspace/Repositories/aitalk/doc/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3.0\im-talk\aitalk\doc\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437DC91F-42B9-0448-A578-4437F8420713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD6D305-B461-4445-810D-B322C980E3FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{F2C5FE8B-44E8-0E47-A551-EB5E6A9AD6B4}"/>
+    <workbookView xWindow="21480" yWindow="-1350" windowWidth="29040" windowHeight="15990" xr2:uid="{F2C5FE8B-44E8-0E47-A551-EB5E6A9AD6B4}"/>
   </bookViews>
   <sheets>
     <sheet name="表一览" sheetId="10" r:id="rId1"/>
@@ -23,26 +23,19 @@
     <sheet name="notification" sheetId="15" r:id="rId8"/>
     <sheet name="invitation" sheetId="16" r:id="rId9"/>
     <sheet name="resouce " sheetId="2" r:id="rId10"/>
+    <sheet name="voice" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="153">
   <si>
     <t>本地路径</t>
   </si>
@@ -51,7 +44,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
@@ -61,7 +54,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
@@ -76,7 +69,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
@@ -86,7 +79,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
@@ -101,7 +94,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
@@ -111,7 +104,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
@@ -364,7 +357,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
@@ -548,30 +541,62 @@
   <si>
     <t>相对路径</t>
   </si>
+  <si>
+    <t>msgId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>localPath</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverPath</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音状态 0未读1已读</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器地址</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地路径</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <scheme val="minor"/>
     </font>
@@ -579,7 +604,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -587,21 +612,21 @@
       <u/>
       <sz val="14"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <scheme val="minor"/>
     </font>
@@ -611,6 +636,21 @@
       <color rgb="FF9876AA"/>
       <name val="JetBrains Mono"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -658,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -686,11 +726,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DADDF566-348C-0B4E-AADD-7D17C8E93BA9}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -706,7 +747,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1004,14 +1045,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BCAA12-5BDB-2144-836F-54A8E11021CF}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1026,7 +1065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19">
+    <row r="2" spans="1:3" ht="18">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1035,7 +1074,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="19">
+    <row r="3" spans="1:3" ht="18">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1083,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="19">
+    <row r="4" spans="1:3" ht="18">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1053,7 +1092,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="19">
+    <row r="5" spans="1:3" ht="18">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -1064,7 +1103,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1075,7 +1114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19">
+    <row r="7" spans="1:3" ht="18">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1086,7 +1125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19">
+    <row r="8" spans="1:3" ht="18">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1097,7 +1136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19">
+    <row r="9" spans="1:3" ht="18">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1106,7 +1145,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="19">
+    <row r="10" spans="1:3" ht="18">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -1116,6 +1155,7 @@
       <c r="C10" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1129,10 +1169,10 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1178,6 +1218,59 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBAFA0B-8128-4728-9C0D-6AA762E75DFF}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1188,8 +1281,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1198,15 +1292,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02CC887-3BF9-D54B-A65B-5D2D002C03CD}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1324,6 +1416,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1333,15 +1426,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3F8398-E842-064E-B482-0EFB7295FE1A}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1441,6 +1532,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1450,13 +1542,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE086EF9-40FD-F44F-8D78-F527CF6CF228}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1538,6 +1628,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1546,15 +1637,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2679FD-4C00-FB4D-8186-54CE106F5B8B}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="185.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="185.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1768,6 +1857,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1777,15 +1867,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB0B386-777C-FB48-BC3B-93BD9FAE93F0}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="185.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="185.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1932,6 +2020,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1945,10 +2034,10 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2065,6 +2154,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2077,12 +2167,12 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2217,6 +2307,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/db/aiTalkDB_Frontend.xlsx
+++ b/doc/db/aiTalkDB_Frontend.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3.0\im-talk\aitalk\doc\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqingze/Workspace/Repositories/aitalk/doc/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98570BF1-8062-44F5-B33F-94BFE90B9781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77772992-DA69-3246-8A4E-A9968967176F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="21840" windowHeight="13290" xr2:uid="{F2C5FE8B-44E8-0E47-A551-EB5E6A9AD6B4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{F2C5FE8B-44E8-0E47-A551-EB5E6A9AD6B4}"/>
   </bookViews>
   <sheets>
     <sheet name="表一览" sheetId="10" r:id="rId1"/>
-    <sheet name="follower" sheetId="9" r:id="rId2"/>
+    <sheet name="subscription" sheetId="9" r:id="rId2"/>
     <sheet name="friendship" sheetId="8" r:id="rId3"/>
     <sheet name="group" sheetId="11" r:id="rId4"/>
     <sheet name="group_member" sheetId="12" r:id="rId5"/>
@@ -22,8 +22,10 @@
     <sheet name="msg_hist" sheetId="14" r:id="rId7"/>
     <sheet name="notification" sheetId="15" r:id="rId8"/>
     <sheet name="invitation" sheetId="16" r:id="rId9"/>
-    <sheet name="resouce " sheetId="2" r:id="rId10"/>
-    <sheet name="voice" sheetId="17" r:id="rId11"/>
+    <sheet name="consultant_client" sheetId="19" r:id="rId10"/>
+    <sheet name="consultation_msg" sheetId="20" r:id="rId11"/>
+    <sheet name="resouce " sheetId="2" r:id="rId12"/>
+    <sheet name="voice" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="182">
   <si>
     <t>本地路径</t>
   </si>
@@ -44,7 +46,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
@@ -54,7 +56,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
@@ -69,7 +71,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
@@ -79,7 +81,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
@@ -94,7 +96,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
@@ -104,7 +106,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
@@ -112,9 +114,6 @@
     </r>
   </si>
   <si>
-    <t>nickname</t>
-  </si>
-  <si>
     <t>群id</t>
   </si>
   <si>
@@ -155,12 +154,6 @@
   </si>
   <si>
     <t>msgType</t>
-  </si>
-  <si>
-    <t>follower</t>
-  </si>
-  <si>
-    <t>粉丝列表</t>
   </si>
   <si>
     <t>friendship</t>
@@ -357,7 +350,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="1"/>
         <scheme val="minor"/>
       </rPr>
@@ -402,9 +395,6 @@
   </si>
   <si>
     <t>修改时间</t>
-  </si>
-  <si>
-    <t>昵称</t>
   </si>
   <si>
     <t>最后接受消息id</t>
@@ -589,7 +579,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -600,7 +590,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -610,7 +600,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -628,7 +618,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="新細明體"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="136"/>
         <scheme val="minor"/>
@@ -637,30 +627,115 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>senderId</t>
+  </si>
+  <si>
+    <t>receiverId</t>
+  </si>
+  <si>
+    <t>群昵称</t>
+  </si>
+  <si>
+    <t>是否屏蔽群消息</t>
+  </si>
+  <si>
+    <t>最后读取群消息id</t>
+  </si>
+  <si>
+    <t>最后读取群消息时间</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>邀请人/咨询人</t>
+  </si>
+  <si>
+    <t>接受人/被咨询人</t>
+  </si>
+  <si>
+    <t>邀请时间/咨询时间</t>
+  </si>
+  <si>
+    <t>msg id 【前端需要存储而外的seq字段，用户协议响应部分】</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会话类型：0、P2P一对一会话；1、MUC多人会话；  </t>
+  </si>
+  <si>
+    <t>发送者id(userId)</t>
+  </si>
+  <si>
+    <t>接受者id (userId)</t>
+  </si>
+  <si>
+    <t>消息类型0：文本 1：音频 2：视频 3：位置 4：名片 5：图片 6：讯息 7：团购 8：通知 9：商品 10：易货 11：店铺  12： 抢单 13：群聊邀请 14:群通知 15 文件 16 通知 17回复 18 @  19 预购单 20 配送 21 动态</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：0 发送中 1:送达 2:已读 3:删除 4:撤回 5:已撤回 6:发送失败</t>
+  </si>
+  <si>
+    <t>subscriber</t>
+  </si>
+  <si>
+    <t>订阅者userId</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>发布者pageId</t>
+  </si>
+  <si>
+    <t>订阅时间</t>
+  </si>
+  <si>
+    <t>subscription</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>consultant_client</t>
+  </si>
+  <si>
+    <t>consultation_msg</t>
+  </si>
+  <si>
+    <t>咨询客户关系</t>
+  </si>
+  <si>
+    <t>咨询消息</t>
+  </si>
+  <si>
+    <t>订阅/发布关系（粉丝列表）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <scheme val="minor"/>
     </font>
@@ -668,7 +743,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -676,21 +751,21 @@
       <u/>
       <sz val="14"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <scheme val="minor"/>
     </font>
@@ -703,7 +778,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -711,13 +786,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -727,6 +810,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -791,11 +880,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DADDF566-348C-0B4E-AADD-7D17C8E93BA9}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,7 +902,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1107,125 +1198,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BCAA12-5BDB-2144-836F-54A8E11021CF}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19">
+      <c r="A2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="19">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="19">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="19">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="19">
+      <c r="A10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="19">
+      <c r="A11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="19">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="18">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="18">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="18">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" ht="18">
-      <c r="A11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="3"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" ht="19">
+      <c r="A13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -1235,6 +1346,305 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9E8D21-FC3F-1A4A-95D4-E1F090D5BFC1}">
+  <dimension ref="A1:R38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="18:18">
+      <c r="R38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F0A381-686F-8749-80E2-C38381B428FD}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC3F0F7-054F-0D47-BA14-9E5875E849F5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1242,22 +1652,22 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1276,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1287,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBAFA0B-8128-4728-9C0D-6AA762E75DFF}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1308,38 +1718,38 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1350,12 +1760,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957926E4-071C-074D-9D31-2968607EB483}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1367,136 +1845,136 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1512,107 +1990,107 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1624,91 +2102,138 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE086EF9-40FD-F44F-8D78-F527CF6CF228}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
-        <v>99</v>
+      <c r="C8" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1723,221 +2248,221 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="185.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="185.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1951,156 +2476,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB0B386-777C-FB48-BC3B-93BD9FAE93F0}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="185.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="185.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>106</v>
+      <c r="A13" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2118,123 +2645,123 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2251,143 +2778,143 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
